--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-5.512076863539789</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.68204556292864</v>
+        <v>-4.609864265545507</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.968550961468024</v>
+        <v>-6.806064818246106</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.693683570961982</v>
+        <v>-7.929744378524103</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.348066707259674</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.483119116086388</v>
+        <v>-5.57709071707536</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.625005337936777</v>
+        <v>-6.312284902701429</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.033511013833156</v>
+        <v>-9.061070345541957</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.291326174679652</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.643964906566674</v>
+        <v>-6.593471243645176</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.225079687216268</v>
+        <v>-5.882829650504753</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.21584398949353</v>
+        <v>-10.26460694398414</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.346928449412697</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.321967489863572</v>
+        <v>-7.336922961869464</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.520842693071504</v>
+        <v>-5.257804345617746</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.11065447131064</v>
+        <v>-11.15800939182358</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.480124002786299</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.216553077364802</v>
+        <v>-8.25820252686405</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.220437666133915</v>
+        <v>-4.959208251220915</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.25495586255329</v>
+        <v>-12.29410702954354</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.659483555792118</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.712767718329202</v>
+        <v>-8.789256230762085</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.924207851060671</v>
+        <v>-4.642517942409633</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.23919116897314</v>
+        <v>-13.31663303774507</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.852718771600988</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.477002604744746</v>
+        <v>-9.561342862205896</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.596346161558488</v>
+        <v>-4.347749940389597</v>
       </c>
       <c r="G8" t="n">
-        <v>-14.51144764793668</v>
+        <v>-14.33867992327364</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.02944911444876</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.623912372088673</v>
+        <v>-9.821403804477702</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.363986332194621</v>
+        <v>-4.142274759786895</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.09322968708582</v>
+        <v>-14.87844583740852</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.166154613761473</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.813992070067458</v>
+        <v>-10.02139351937572</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.114456310714149</v>
+        <v>-4.104688074994053</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.92180390386997</v>
+        <v>-15.56971229633536</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.254784129553829</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.0524876030493</v>
+        <v>-10.18335164985602</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.483894114612577</v>
+        <v>-4.453508936934701</v>
       </c>
       <c r="G11" t="n">
-        <v>-15.8941956820925</v>
+        <v>-15.5470077484454</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.296608985845157</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.55268189560337</v>
+        <v>-10.67885738482471</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.989141286701385</v>
+        <v>-4.015317029466848</v>
       </c>
       <c r="G12" t="n">
-        <v>-15.83355244091529</v>
+        <v>-15.28672680086458</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.299568175341812</v>
       </c>
       <c r="E13" t="n">
-        <v>-11.1255414972204</v>
+        <v>-11.21499076685747</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.182540620342807</v>
+        <v>-4.216597442177736</v>
       </c>
       <c r="G13" t="n">
-        <v>-15.21466283964626</v>
+        <v>-14.60922778527498</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.280503178391394</v>
       </c>
       <c r="E14" t="n">
-        <v>-11.51807496955813</v>
+        <v>-11.67068531890888</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.322053320297091</v>
+        <v>-4.447436790405993</v>
       </c>
       <c r="G14" t="n">
-        <v>-14.4278505195193</v>
+        <v>-13.63170997429027</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.26170317718557</v>
       </c>
       <c r="E15" t="n">
-        <v>-12.04827798626132</v>
+        <v>-12.23678831303583</v>
       </c>
       <c r="F15" t="n">
-        <v>-4.07155527545697</v>
+        <v>-4.244000325666795</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.80601049354387</v>
+        <v>-11.97260104896835</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.260381287030462</v>
       </c>
       <c r="E16" t="n">
-        <v>-12.49586167592052</v>
+        <v>-12.7356967967839</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.017756643893438</v>
+        <v>-4.149275817620317</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.42009438293829</v>
+        <v>-10.58538446253617</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.28934313034039</v>
       </c>
       <c r="E17" t="n">
-        <v>-13.22986294387106</v>
+        <v>-13.36365550579106</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.579613626494254</v>
+        <v>-3.792172978047116</v>
       </c>
       <c r="G17" t="n">
-        <v>-10.16917841894883</v>
+        <v>-9.294349308196804</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.355680355903252</v>
       </c>
       <c r="E18" t="n">
-        <v>-13.73127948814186</v>
+        <v>-13.96150282150488</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.390052163243361</v>
+        <v>-3.615332710663935</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.503435111308503</v>
+        <v>-7.603813846734352</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.452559095387326</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.79335267288986</v>
+        <v>-14.84221340751781</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.983702357499725</v>
+        <v>-3.227546463993975</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.715373740864833</v>
+        <v>-5.916446461721661</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.567102056954884</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.8186409699712</v>
+        <v>-15.83574271599167</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.62343633048363</v>
+        <v>-2.784553551782812</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.289196658710207</v>
+        <v>-4.409933218729888</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.693576394985491</v>
       </c>
       <c r="E21" t="n">
-        <v>-16.40597203191429</v>
+        <v>-16.31488983398366</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.257875509030665</v>
+        <v>-2.396943309360061</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.497021098050244</v>
+        <v>-3.504151805503422</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.834831892319738</v>
       </c>
       <c r="E22" t="n">
-        <v>-17.28687817820189</v>
+        <v>-17.16164626730587</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.244200956823904</v>
+        <v>-2.362563813071915</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.59095123341863</v>
+        <v>-2.652613923465378</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.992989091678871</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.53933182578878</v>
+        <v>-17.46944347262623</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.076835584748805</v>
+        <v>-2.152771639405727</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.027454079951747</v>
+        <v>-2.146059032977453</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.170746716085894</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.13872406767255</v>
+        <v>-18.02006298200566</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.995135390995789</v>
+        <v>-2.118328586028312</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.979253361250833</v>
+        <v>-2.181162102281903</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.370929348564809</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.90690927163656</v>
+        <v>-18.78462054287442</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.775736318836114</v>
+        <v>-1.908614636471995</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.014151092266872</v>
+        <v>-2.255802570119093</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.58876279747198</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.06544998631688</v>
+        <v>-19.03050336523217</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.827173560082926</v>
+        <v>-1.863625995282644</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.901909272616238</v>
+        <v>-2.210994822183818</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.810937776544454</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.27096427897452</v>
+        <v>-19.21862257145733</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.024733438568092</v>
+        <v>-2.114730276974262</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.302954505909272</v>
+        <v>-2.648272485367558</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.023580254024719</v>
       </c>
       <c r="E28" t="n">
-        <v>-19.31568402478619</v>
+        <v>-19.24352717243739</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.918778881748311</v>
+        <v>-2.051486084143851</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.857876341331586</v>
+        <v>-3.336483315002574</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.214101853801504</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.18457552763613</v>
+        <v>-19.18213102420267</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.315091556394171</v>
+        <v>-2.395354382128314</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.639188528733263</v>
+        <v>-4.083445340157308</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.366963978685259</v>
       </c>
       <c r="E30" t="n">
-        <v>-18.99779102028565</v>
+        <v>-18.96541601681293</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.30228724740972</v>
+        <v>-2.46223599606771</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.487866341754162</v>
+        <v>-4.879688554530544</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.469458229583903</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.11207155579978</v>
+        <v>-19.10134507473377</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.37310940088385</v>
+        <v>-2.526404211195969</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.134926400590356</v>
+        <v>-5.537460427412148</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.515875289697012</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.23664833977564</v>
+        <v>-19.19643625829527</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.550179451589776</v>
+        <v>-2.707351244347358</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.801884717374893</v>
+        <v>-6.329802214305586</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.499608810326231</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.11201288771738</v>
+        <v>-19.07150257681812</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.54033299175981</v>
+        <v>-2.741442289230356</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.633133220915241</v>
+        <v>-7.186307327320415</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.415371050967707</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.36322726300128</v>
+        <v>-18.45116582951649</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.681292837746701</v>
+        <v>-2.750086053371061</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.096919079331393</v>
+        <v>-7.691053285267581</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.271528722221582</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.94922616151093</v>
+        <v>-18.03484733877121</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.482686711792015</v>
+        <v>-2.731473604228716</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.51377536083203</v>
+        <v>-8.08175826903709</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.084718776582861</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.59328690557205</v>
+        <v>-17.68290729044947</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.833272505211619</v>
+        <v>-2.969998471251763</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.577239558971453</v>
+        <v>-8.284554273876722</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.87137743430305</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.15667414732221</v>
+        <v>-17.32992099465821</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.474634517482206</v>
+        <v>-2.586529217645289</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.919313591435758</v>
+        <v>-8.57366080594487</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.650360350120939</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.65784877669088</v>
+        <v>-16.84216433557357</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.58781013744442</v>
+        <v>-2.692161100011853</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.818023147167013</v>
+        <v>-8.553933663236869</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.441471102944891</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.26337436862698</v>
+        <v>-16.43569719366513</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.485761897111305</v>
+        <v>-2.58104375194061</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.811995001700106</v>
+        <v>-8.547568176296146</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.25219453627345</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.77226385083164</v>
+        <v>-15.93065789530595</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.39496326157896</v>
+        <v>-2.506618400405564</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.603508192867386</v>
+        <v>-8.317452401084193</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.076139389885274</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.11962054615343</v>
+        <v>-15.26121107402616</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.092485295729799</v>
+        <v>-2.193140169105845</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.783946769304617</v>
+        <v>-8.420683781079102</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.905358386555899</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.67555694143841</v>
+        <v>-14.79348956508213</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.930483164187706</v>
+        <v>-2.012261582050592</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.259493224676916</v>
+        <v>-7.900249000096006</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.729476439334964</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.18630913525937</v>
+        <v>-14.32392978955616</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.24590233121359</v>
+        <v>-2.232643344590517</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.167917237052732</v>
+        <v>-7.642647228278257</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.536115538718858</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.9059245914418</v>
+        <v>-13.97771476827557</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.222904442911623</v>
+        <v>-2.110951074666137</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.590691752303552</v>
+        <v>-7.050754722928332</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.318036170731952</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.40583296803193</v>
+        <v>-13.38338753750593</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.137024148287395</v>
+        <v>-2.124557180776761</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.061764766392624</v>
+        <v>-6.459502677477972</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.074573335052786</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.85415743316925</v>
+        <v>-12.75250031338549</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.302790815117013</v>
+        <v>-2.262319616272691</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.705546837062334</v>
+        <v>-6.026859792804068</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.806833001747135</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.43435796953473</v>
+        <v>-12.36370693130094</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.445681818816336</v>
+        <v>-2.382354512869187</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.680500454883129</v>
+        <v>-6.03167546456798</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.514580129221147</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.50480620492132</v>
+        <v>-11.54223155248756</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.574028027086587</v>
+        <v>-2.474453624228131</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.805803347316509</v>
+        <v>-5.180690040305897</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.206221927853494</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.19790368785761</v>
+        <v>-11.18889324820188</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.892595714534765</v>
+        <v>-2.851884954353964</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.377976134406516</v>
+        <v>-4.731571202490488</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.889893404448068</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.803932847501</v>
+        <v>-10.70726740372836</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.024354449598123</v>
+        <v>-3.008954077967341</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.543434793803518</v>
+        <v>-4.837926657873356</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.570338547767078</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.39926486011958</v>
+        <v>-10.34229326309942</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.024657568023872</v>
+        <v>-3.023909549973234</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.168203516767796</v>
+        <v>-4.584265425590341</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.253826018920002</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.946894832737675</v>
+        <v>-9.895110472003312</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.013197735927823</v>
+        <v>-3.075327235192578</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.701880263787714</v>
+        <v>-4.140353380088198</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.948297183302334</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.764867329068698</v>
+        <v>-9.726630406362556</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.075249011082708</v>
+        <v>-3.138224308535439</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.634460859092957</v>
+        <v>-4.251866737715661</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.658946002550378</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.373873893894041</v>
+        <v>-9.230963334167251</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.066800807216679</v>
+        <v>-3.228915385916712</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.555992298878972</v>
+        <v>-4.24640082803845</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.389214159784049</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.861398416090283</v>
+        <v>-8.674633464767265</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.46150988761019</v>
+        <v>-3.535407226403609</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.837432868179798</v>
+        <v>-4.58890998211391</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.146719551705159</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.819128062718937</v>
+        <v>-8.563452559606752</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.526372341713551</v>
+        <v>-3.622495105723965</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.991211690171741</v>
+        <v>-4.885697143969982</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.938307009709718</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.51871814677448</v>
+        <v>-8.233992164859087</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.423884090762413</v>
+        <v>-3.584072400756881</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.045880564957583</v>
+        <v>-5.018208786090845</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.766616748281084</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.152316416140406</v>
+        <v>-7.870523838345163</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.408351715946224</v>
+        <v>-3.541117586424166</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.663469690400014</v>
+        <v>-5.623854067757402</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.633378813456579</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.837171033499069</v>
+        <v>-7.632761656393355</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.614257129153214</v>
+        <v>-3.709856769428869</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.176991415673292</v>
+        <v>-6.152424156167045</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.534290980521168</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.743791002340993</v>
+        <v>-7.58876059459112</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.507222101815845</v>
+        <v>-3.774914783806906</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.790283104079704</v>
+        <v>-6.721328551228735</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.458309409216804</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.655500427331376</v>
+        <v>-7.45195151543424</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.635328748749617</v>
+        <v>-3.855441615911862</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.02603590420921</v>
+        <v>-7.00872881990033</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.392907177437404</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.348241012766373</v>
+        <v>-7.216912510307303</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.713107958995367</v>
+        <v>-3.96560071863719</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.525599514877446</v>
+        <v>-7.511944518698153</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.329526734091923</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.148109516669209</v>
+        <v>-7.087392940388992</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.644407634501478</v>
+        <v>-3.965170486032901</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.448406985455726</v>
+        <v>-7.536428665087662</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.262538203437055</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.370960227676926</v>
+        <v>-7.282635429619241</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.743820700133327</v>
+        <v>-3.995575219738245</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.635567946334964</v>
+        <v>-7.826860118016745</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.187617629540754</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.194740864165844</v>
+        <v>-7.102319078353684</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.582791480957749</v>
+        <v>-3.936452459696643</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.976429505096274</v>
+        <v>-8.130575002603235</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.104831424100289</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.542271028293626</v>
+        <v>-7.37366384847433</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.723482431566961</v>
+        <v>-4.002742503805143</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.900322335199009</v>
+        <v>-8.154496913203051</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.016885502334505</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.391357164325695</v>
+        <v>-7.316638472378634</v>
       </c>
       <c r="F67" t="n">
-        <v>-4.096278983182959</v>
+        <v>-4.30135815422944</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.902805950687402</v>
+        <v>-8.077001265355582</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.926312805558306</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.599066621066576</v>
+        <v>-7.559842118973318</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.837689631978094</v>
+        <v>-4.111298012278122</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.897662715463407</v>
+        <v>-8.094719026241281</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.833939668634798</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.845858798701577</v>
+        <v>-7.764266163099633</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.869316617400167</v>
+        <v>-4.191937291541017</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.746357730946124</v>
+        <v>-7.8817489981116</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.738743143277054</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.18311715940197</v>
+        <v>-8.125153093987826</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.639626185785636</v>
+        <v>-3.962290860988288</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.763723483337405</v>
+        <v>-7.937527677456232</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.636508518811858</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.511756200995993</v>
+        <v>-8.460079398412702</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.69261324220926</v>
+        <v>-4.048141821571315</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.003397266974178</v>
+        <v>-8.030203691625472</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.52199295909507</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.013431862630737</v>
+        <v>-8.999424857957026</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.772494725407783</v>
+        <v>-4.05814961862789</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.950385765516218</v>
+        <v>-7.989932942062693</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.393101933122817</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.394085048281868</v>
+        <v>-9.37493969739103</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.961034386223491</v>
+        <v>-4.295066002391721</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.672548394276308</v>
+        <v>-7.718925513415864</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.249558988973292</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.00591492363507</v>
+        <v>-9.897320303107158</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.933279494240015</v>
+        <v>-4.25335788481007</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.412316336764159</v>
+        <v>-7.379012421986735</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.092384687183843</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.41929512125333</v>
+        <v>-10.3037874450156</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.979495276152962</v>
+        <v>-4.337052793364787</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.169122468183209</v>
+        <v>-7.046716403256259</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9232769810032803</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.60725787925874</v>
+        <v>-10.63510566237269</v>
       </c>
       <c r="F76" t="n">
-        <v>-4.049212514075169</v>
+        <v>-4.391702112123162</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.977013832354653</v>
+        <v>-6.809017778393722</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7456356794928312</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.24121051068474</v>
+        <v>-11.24540038956969</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.262749667001414</v>
+        <v>-4.553102895820625</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.596605097046869</v>
+        <v>-6.52888746293323</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5613679104891299</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.84242635212987</v>
+        <v>-11.76693519709784</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.324830276197499</v>
+        <v>-4.559962172454907</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.5466981149494</v>
+        <v>-6.510382571941956</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3726107230854067</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.53652354603265</v>
+        <v>-12.43159568065492</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.619461386025262</v>
+        <v>-4.930323998651182</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.317809480461043</v>
+        <v>-6.257601360894986</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1843087123350632</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.17944750505944</v>
+        <v>-13.05822457979428</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.759917664304862</v>
+        <v>-4.962650112055224</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.063102000708509</v>
+        <v>-5.927373392069216</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.0002154113344344437</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.74651363353917</v>
+        <v>-13.5777842285482</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.72649641336263</v>
+        <v>-4.958127780703327</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.681304787450519</v>
+        <v>-5.60930927232833</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1748500747919918</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.41841962527302</v>
+        <v>-14.26881112613856</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.963931031854355</v>
+        <v>-5.166986154057934</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.791991902917474</v>
+        <v>-5.593234217749914</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3359103511260009</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.06575346849376</v>
+        <v>-14.84097648878048</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.289578001245826</v>
+        <v>-5.440222969836077</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.658282454114217</v>
+        <v>-5.496715444183279</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4764244700114145</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.95370467367659</v>
+        <v>-15.76818153009777</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.428249792019002</v>
+        <v>-5.581784163667598</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.45218148063255</v>
+        <v>-5.215587771321935</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5894761653949072</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.16116225562604</v>
+        <v>-16.88110527526855</v>
       </c>
       <c r="F85" t="n">
-        <v>-5.39953665468961</v>
+        <v>-5.64697907023791</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.247503208149156</v>
+        <v>-5.078993808467199</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6679001371018716</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.36775937236692</v>
+        <v>-18.01896295546061</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.726894776484501</v>
+        <v>-5.896357532505507</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.937461948676877</v>
+        <v>-4.886151821608605</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7043929657357101</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.4675610231069</v>
+        <v>-19.15739753846295</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.824274015259713</v>
+        <v>-6.063801128690478</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.025043617690792</v>
+        <v>-5.006621839816257</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6915233635271673</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.32569417540842</v>
+        <v>-20.12019454977138</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.777256436220592</v>
+        <v>-6.182789777817454</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.06594993814627</v>
+        <v>-5.092751473790697</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6244199429017367</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.37149674530333</v>
+        <v>-21.11406608872592</v>
       </c>
       <c r="F89" t="n">
-        <v>-6.282853081362601</v>
+        <v>-6.440078653195719</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.647309169139209</v>
+        <v>-4.788718803757857</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.5009240370080682</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.93045925396336</v>
+        <v>-22.74050667016311</v>
       </c>
       <c r="F90" t="n">
-        <v>-6.527200755564143</v>
+        <v>-6.655385626607787</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.771524166606917</v>
+        <v>-4.902696220846246</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3199256530311583</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.36522143217629</v>
+        <v>-24.09551936836293</v>
       </c>
       <c r="F91" t="n">
-        <v>-6.424433831221592</v>
+        <v>-6.561306467467742</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.524487538628572</v>
+        <v>-4.723626566331752</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08169091512215923</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.99534343578427</v>
+        <v>-25.76666013958433</v>
       </c>
       <c r="F92" t="n">
-        <v>-6.657111446031807</v>
+        <v>-6.720487642047626</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.823191191176474</v>
+        <v>-4.952001855099082</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.211054000327483</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.67078897755199</v>
+        <v>-27.42315589073588</v>
       </c>
       <c r="F93" t="n">
-        <v>-6.520874380678356</v>
+        <v>-6.624139983721333</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.821216032402241</v>
+        <v>-5.008450328384483</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.553409390028099</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.286417520303</v>
+        <v>-29.06922339024031</v>
       </c>
       <c r="F94" t="n">
-        <v>-6.973259075080863</v>
+        <v>-6.971782595007054</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.931292022010831</v>
+        <v>-5.06135427169137</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.941152640183664</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.36350230969809</v>
+        <v>-31.1787198506596</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.081408795983888</v>
+        <v>-6.887662342854916</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.797543461152639</v>
+        <v>-4.97097609074958</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.37006776022097</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.18957081952516</v>
+        <v>-33.02151854198525</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.251336007657251</v>
+        <v>-7.1866642248217</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.049249090688888</v>
+        <v>-5.190688059348737</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.826046442954941</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.13851718344183</v>
+        <v>-35.02525356135601</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.536624225362339</v>
+        <v>-7.338272327764733</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.858978721442292</v>
+        <v>-5.014077575288302</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.304355123991099</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.98335214612755</v>
+        <v>-36.86177721236798</v>
       </c>
       <c r="F98" t="n">
-        <v>-7.414526167868005</v>
+        <v>-7.224309577696945</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.178450875160849</v>
+        <v>-5.304557918286053</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.778890681463921</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.97718937109624</v>
+        <v>-38.90998997171049</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.383417417173826</v>
+        <v>-7.330459694791402</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.577545394713983</v>
+        <v>-5.611088870827887</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.249990842036921</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.52704356902543</v>
+        <v>-41.44629428710803</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.088228960563235</v>
+        <v>-7.027248377912205</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.137581131319091</v>
+        <v>-6.151392575718125</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.66818221777269</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57605323648725</v>
+        <v>-43.52269217103831</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.922643186987693</v>
+        <v>-6.918731981494161</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.78802438290719</v>
+        <v>-6.78521809296558</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.064997237847845</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.01401762326023</v>
+        <v>-45.88255467311232</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.156743502796181</v>
+        <v>-7.009628397163843</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.302553243595052</v>
+        <v>-7.248055484049551</v>
       </c>
     </row>
   </sheetData>
